--- a/cinematique1d.xlsx
+++ b/cinematique1d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dstamant\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFA64A24-4EFF-4FB0-A68E-FA183008B4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9713F0-5B81-4500-834A-2C6B5A5CADB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{6BF1AA98-7B8B-437A-97AA-D406C6A8ED76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{6BF1AA98-7B8B-437A-97AA-D406C6A8ED76}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temps (s)</t>
   </si>
@@ -54,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,24 +431,24 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -462,23 +456,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>0.1</v>
       </c>
       <c r="B3" s="1">
         <v>0.20500000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>0.2</v>
       </c>
       <c r="B4" s="1">
         <v>0.42000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>0.3</v>
       </c>
@@ -486,7 +480,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>0.4</v>
       </c>
@@ -494,7 +488,7 @@
         <v>0.88000000000000012</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>0.5</v>
       </c>
@@ -502,7 +496,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>0.6</v>
       </c>
@@ -510,7 +504,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>0.7</v>
       </c>
@@ -518,7 +512,7 @@
         <v>1.6449999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>0.8</v>
       </c>
@@ -526,7 +520,7 @@
         <v>1.9200000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>0.9</v>
       </c>
@@ -534,7 +528,7 @@
         <v>2.2050000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -542,7 +536,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="28" x14ac:dyDescent="0.8">
+    <row r="13" spans="1:14" ht="25.5">
       <c r="A13" s="1">
         <v>1.1000000000000001</v>
       </c>
@@ -551,7 +545,7 @@
       </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>1.2</v>
       </c>
@@ -559,7 +553,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>1.3</v>
       </c>
@@ -567,7 +561,7 @@
         <v>3.4450000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>1.4</v>
       </c>
@@ -575,7 +569,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>1.5</v>
       </c>
@@ -583,7 +577,7 @@
         <v>4.125</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>1.6</v>
       </c>
@@ -591,7 +585,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>1.7</v>
       </c>
@@ -599,7 +593,7 @@
         <v>4.8449999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>1.8</v>
       </c>
@@ -607,7 +601,7 @@
         <v>5.2200000000000006</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>1.9</v>
       </c>
@@ -615,7 +609,7 @@
         <v>5.6049999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>2</v>
       </c>
